--- a/fusions_for_tree.xlsx
+++ b/fusions_for_tree.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R projects\Microbial Expansins\Microbial_Expansins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorishapiro/Dropbox/AncientDNA/Expansin-endoglucanase-phylogeny/Microbial_Expansins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CD8AAEA-50D4-48F4-9C35-66F4ADA38349}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7650" xr2:uid="{8D26872C-65A8-4F9D-BCCA-55805C2F1A61}"/>
+    <workbookView xWindow="0" yWindow="2600" windowWidth="18880" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>Name in Tree</t>
   </si>
@@ -193,15 +198,31 @@
   </si>
   <si>
     <t>CBM1-EXP</t>
+  </si>
+  <si>
+    <t>Erwinia-tracheiphila</t>
+  </si>
+  <si>
+    <t>Pantoea-stewartii</t>
+  </si>
+  <si>
+    <t>EXP-GH5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -250,18 +271,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -577,20 +601,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EB0CFE-9969-45F9-A711-DC432EB4D280}">
-  <dimension ref="A1:B48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,379 +622,395 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="B32" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="B34" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="B35" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B36" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="B38" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B39" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B42" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="B43" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="B44" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="B45" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="B46" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="B47" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="B48" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="B49" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>55</v>
       </c>
     </row>
